--- a/target/classes/com/crm/qa/testdata/FreeCRMTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/FreeCRMTestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2B47A4B0-A17B-4C9C-A011-EE7DBCFB72AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F021D753-AC46-4575-813C-B5F3BEB438F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24300" windowHeight="13800" xr2:uid="{5564C33E-38C1-4FAA-A79E-B77DA0D274F4}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24300" windowHeight="13800" activeTab="1" xr2:uid="{5564C33E-38C1-4FAA-A79E-B77DA0D274F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="Deals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:W22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>tilte</t>
   </si>
@@ -69,6 +70,30 @@
   </si>
   <si>
     <t>IBM</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>primaryContact</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>SamSungDeal</t>
+  </si>
+  <si>
+    <t>AppleDeal</t>
+  </si>
+  <si>
+    <t>Harman</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>OnePluasDeal</t>
   </si>
 </sst>
 </file>
@@ -429,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FCC10E-A3E3-4C70-AF11-C827811EAD18}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,4 +522,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A17BE5-544B-4EEC-9284-8D907CF83888}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>5678943678</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>8576937458</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1234567890</v>
+      </c>
+      <c r="D4">
+        <v>12345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>